--- a/documents/RequisitosHistoria.xlsx
+++ b/documents/RequisitosHistoria.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10303"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SetonciOS/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SetonciOS/repos/historiasDelLaberinto/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885E1C30-C866-974F-BFEC-486A2B96690B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70F9F89-B987-9341-A2BE-C6C915CABFB2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{5634A3F7-4193-3B4B-BB38-F3162B90CD14}"/>
   </bookViews>
@@ -68,12 +68,6 @@
     <t>Los personajes pueden tener opcionalmente unas estadísticas de combate si pueden luchar.</t>
   </si>
   <si>
-    <t>El juego dispondrá de varios personajes, entre los que se encuentran el protagonista, los compañeros, los personajes extra y los enemigos.</t>
-  </si>
-  <si>
-    <t>Estos personajes extra son personajes que aparecen en el transcurso del juego que no pueden aparecer en una lucha.</t>
-  </si>
-  <si>
     <t>Los puntos de vida actual representan la vida restante del personaje.</t>
   </si>
   <si>
@@ -314,9 +308,6 @@
     <t>Los estados alterados posibles son: ninguno, veneno, ceguera y parálisis.</t>
   </si>
   <si>
-    <t>Las armas tienen un nombre, puntos de daño extra, puntos de defensa extra, un porcentaje de acierto y pueden provocar un estado alterado, con un porcentaje asignado.</t>
-  </si>
-  <si>
     <t>La fase de cálculo de estado permite recalcular la probabilidad de seguir sufriendo un estado alterado. Esta disminuye conforme avanzan los turnos.</t>
   </si>
   <si>
@@ -383,7 +374,16 @@
     <t>La información del protagonista se guardará en un fichero: sus estadísticas, su nombre, el inventario, las salas que ha visitado y el id de su compañero.</t>
   </si>
   <si>
-    <t>E</t>
+    <t>Personajes</t>
+  </si>
+  <si>
+    <t>El juego dispondrá de varios personajes, entre los que se encuentran el protagonista, los compañeros, los personajes no controlables y los enemigos.</t>
+  </si>
+  <si>
+    <t>Los personajes no controlables son personajes que aparecen en el transcurso del juego que no pueden aparecer en una lucha.</t>
+  </si>
+  <si>
+    <t>Las armas tienen un nombre, puntos de daño extra, un porcentaje de acierto y pueden provocar un estado alterado, con un porcentaje asignado.</t>
   </si>
 </sst>
 </file>
@@ -753,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C769FA3-110A-8F49-B102-F8F2759B4209}">
   <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -778,7 +778,7 @@
     </row>
     <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
@@ -786,12 +786,12 @@
     </row>
     <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -806,7 +806,7 @@
     </row>
     <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -816,7 +816,7 @@
     </row>
     <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -826,7 +826,7 @@
     </row>
     <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -836,31 +836,31 @@
     </row>
     <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>2</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>10</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>11</v>
@@ -876,446 +876,446 @@
     </row>
     <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C25" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C26" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C27" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C28" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C29" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C30" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C31" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="C32" s="2" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C37" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C38" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C39" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C40" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C41" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C42" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C43" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C47" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C48" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C52" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C53" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C54" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C55" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C58" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C59" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C60" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C61" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C64" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C65" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C66" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C67" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C68" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C69" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C72" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C73" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C74" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C75" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C76" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C77" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C78" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C79" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C80" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C81" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C82" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C83" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C84" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C85" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C86" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C87" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C88" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="C92" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C93" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="C94" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
       <c r="C95" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C96" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="97" spans="3:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C97" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98" spans="3:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C98" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="3:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C99" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100" spans="3:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C100" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101" spans="3:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C101" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="102" spans="3:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C102" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="103" spans="3:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C103" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="104" spans="3:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C104" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="105" spans="3:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C105" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="106" spans="3:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C106" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="107" spans="3:3" ht="34" x14ac:dyDescent="0.2">
       <c r="C107" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="108" spans="3:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C108" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="111" spans="3:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C111" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="112" spans="3:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C112" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="113" spans="3:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C113" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="114" spans="3:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C114" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="115" spans="3:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C115" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="117" spans="3:3" ht="17" x14ac:dyDescent="0.2">
       <c r="C117" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
